--- a/data/trans_camb/P16A06-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A06-Habitat-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.7427151937137787</v>
+        <v>-0.6489369928148113</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.168505939693107</v>
+        <v>-0.09820470557441578</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.275698813916877</v>
+        <v>3.478739510057548</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.452998555664733</v>
+        <v>1.297138130904852</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.508765659278365</v>
+        <v>4.55965536231607</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>8.325316546804636</v>
+        <v>8.294062874927731</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8100441755274699</v>
+        <v>0.6800912248115382</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.725087559753404</v>
+        <v>2.777164444840221</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>6.50592685170477</v>
+        <v>6.471402805291157</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.918501644753372</v>
+        <v>1.870885269236266</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.672757085102532</v>
+        <v>2.738509038033676</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.376008284222552</v>
+        <v>7.511693242670795</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.293515183982725</v>
+        <v>5.231988505669261</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>9.260894124371493</v>
+        <v>9.389874891986153</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>12.32340407776862</v>
+        <v>12.53159441923563</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.061641590569876</v>
+        <v>2.968274835015814</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.536883259982634</v>
+        <v>5.42682467952372</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>9.34740055173612</v>
+        <v>9.308568839621788</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>4.120748888521328</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>6.203883608625082</v>
+        <v>6.203883608625083</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1.294048448101537</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4327711634004483</v>
+        <v>-0.4050854464181557</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1686962205953142</v>
+        <v>-0.1184295224099909</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>1.466487843048833</v>
+        <v>1.781182851352435</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.520965219687395</v>
+        <v>0.4731325057508936</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.708182417622517</v>
+        <v>1.693215169039053</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>2.995930769787881</v>
+        <v>3.199959161660497</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3926660367610206</v>
+        <v>0.3255112324598839</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>1.422972519708456</v>
+        <v>1.280923644642036</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>3.235523799619239</v>
+        <v>3.032247469121592</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.777772042631422</v>
+        <v>2.659066974960747</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.869565655594574</v>
+        <v>3.772551586250187</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>10.93457141401209</v>
+        <v>10.44331873213203</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>4.996319859278336</v>
+        <v>5.272076400685809</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>9.566090194495434</v>
+        <v>9.344864204379776</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>12.48312207561748</v>
+        <v>12.66559975514896</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.865110604382849</v>
+        <v>2.963784869306952</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>5.200262537483983</v>
+        <v>5.209712738321913</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>9.406085470662017</v>
+        <v>9.276487748364683</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>1.617919079034154</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>4.101526664262091</v>
+        <v>4.10152666426209</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.840928303619627</v>
+        <v>-1.766518725628802</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.5228972355936423</v>
+        <v>-0.4825007059452361</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6179359992500947</v>
+        <v>0.7134859904730381</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.340472204360775</v>
+        <v>2.266426969300896</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5672335633732276</v>
+        <v>0.5401155980826199</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.957391925423787</v>
+        <v>4.241974313520844</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7071743752967744</v>
+        <v>0.7349325640272355</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4295480183817265</v>
+        <v>0.4187539675332124</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.826557573872187</v>
+        <v>2.852202852163885</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3689595352331759</v>
+        <v>0.4035467048234807</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.155570730719556</v>
+        <v>2.14977045508135</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.521631165057686</v>
+        <v>3.579927273801747</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.313990377639297</v>
+        <v>6.288430862848271</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.21827041391806</v>
+        <v>4.41802509579958</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.807354998178366</v>
+        <v>7.875525539177652</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.09003179608338</v>
+        <v>3.08698838307267</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.777278217674173</v>
+        <v>2.816093167220612</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.330578180142165</v>
+        <v>5.357612483695545</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.744744022992073</v>
+        <v>-0.7303796385347993</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2471559191853491</v>
+        <v>-0.234801182289052</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2419998056036339</v>
+        <v>0.2270134934571573</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.5381966417173814</v>
+        <v>0.4696435944464859</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.09852124957500422</v>
+        <v>0.117805847508181</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8732320220069515</v>
+        <v>0.9714957991840687</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2118483504064653</v>
+        <v>0.2274244244513514</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1306964589515637</v>
+        <v>0.1303410065496607</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.8667343280254448</v>
+        <v>0.9091505618805479</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4520966305373973</v>
+        <v>0.4581093242199629</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.030748044283132</v>
+        <v>2.101028255436837</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.347973674795633</v>
+        <v>3.332368523132829</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.576772920032016</v>
+        <v>2.536212543431309</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.723065064161172</v>
+        <v>1.710342491899902</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.225091279294358</v>
+        <v>3.219010733196908</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.521370520123609</v>
+        <v>1.509298706645469</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.413250065627135</v>
+        <v>1.445155636637512</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.614050782412371</v>
+        <v>2.919463671728589</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>1.520042498585553</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>3.465760752343594</v>
+        <v>3.465760752343597</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.2551812897656713</v>
@@ -1092,7 +1092,7 @@
         <v>1.072406701247831</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>3.274864718623307</v>
+        <v>3.274864718623306</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.126910720146168</v>
+        <v>-1.079357329040218</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.087846838503376</v>
+        <v>-1.187627766141989</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.367890580628292</v>
+        <v>1.296249750421868</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.606941373809291</v>
+        <v>-2.545951565485496</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.9070558572007278</v>
+        <v>-0.8023139568025618</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.259621882922922</v>
+        <v>1.169674487448209</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.259414400642551</v>
+        <v>-1.203806915226147</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.3162069666494187</v>
+        <v>-0.4846820652116143</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.812731174938996</v>
+        <v>1.810001975482274</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.501987976413221</v>
+        <v>2.434240370252623</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.091097734424692</v>
+        <v>2.029027236240627</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.146888263260553</v>
+        <v>5.030576827776388</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.408354089127194</v>
+        <v>2.314955266228059</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.243629901469458</v>
+        <v>3.961422614946007</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.880171082785165</v>
+        <v>5.989141308590392</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.662616221755764</v>
+        <v>1.854445491261996</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.55085427845982</v>
+        <v>2.494888057571345</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.937620407790122</v>
+        <v>4.821474926228349</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.2764383351802651</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6302910171277971</v>
+        <v>0.6302910171277977</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.06931923088681065</v>
@@ -1197,7 +1197,7 @@
         <v>0.2913160592480158</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.8896071642312792</v>
+        <v>0.8896071642312787</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4803355349961496</v>
+        <v>-0.4726694509866615</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4401403622380508</v>
+        <v>-0.4616970333535352</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.4073616063662753</v>
+        <v>0.3438699286256356</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3864445371669306</v>
+        <v>-0.386552840750718</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1491874512020932</v>
+        <v>-0.1193480633370136</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1891203863577063</v>
+        <v>0.1615192627976243</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2841309647604117</v>
+        <v>-0.2761029818741693</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.07905441365984893</v>
+        <v>-0.1087233611430265</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.3938521459531205</v>
+        <v>0.4025648817215288</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.11884513062168</v>
+        <v>2.100496678449858</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.961321087712747</v>
+        <v>1.815081781169135</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>4.77617422672309</v>
+        <v>4.255382595061684</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5418544485055635</v>
+        <v>0.5306526888984184</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.9577829730393279</v>
+        <v>0.9293901302274759</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.390245152893912</v>
+        <v>1.370475888316687</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5808426973473513</v>
+        <v>0.6131707604893448</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.8494690958470501</v>
+        <v>0.838397281261252</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.704837045265177</v>
+        <v>1.620459870130239</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>1.85107555949424</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>4.325952780138827</v>
+        <v>4.325952780138832</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.465837410021484</v>
+        <v>-1.406524259196705</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.218559794916785</v>
+        <v>-1.273392427683034</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.211819499643082</v>
+        <v>1.1330406151461</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.203839043492281</v>
+        <v>-1.450856950788309</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.7799530494717984</v>
+        <v>0.9210743751181449</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>3.654535203104195</v>
+        <v>3.547148159037288</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.8208945406309041</v>
+        <v>-0.9666302688657228</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.4610546889055896</v>
+        <v>0.3219055565395639</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.917634735485879</v>
+        <v>2.841108692759686</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.693950714693926</v>
+        <v>1.898166666173764</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.856002048099936</v>
+        <v>1.721551959583763</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.714981677089529</v>
+        <v>4.744652077126823</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.916650504848756</v>
+        <v>2.877044511821847</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.804895524545993</v>
+        <v>5.94025239557015</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.853603968233146</v>
+        <v>7.791890979663739</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.738160255442349</v>
+        <v>1.80687465899826</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.401268372755061</v>
+        <v>3.321173253279552</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>5.644527350873943</v>
+        <v>5.764777785941772</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.4196230577895812</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.9806566372423888</v>
+        <v>0.9806566372423898</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4202872757212903</v>
+        <v>-0.3942981095436184</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.337184936659635</v>
+        <v>-0.3562635032153314</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2994898833813687</v>
+        <v>0.2973584927415728</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1841363105845983</v>
+        <v>-0.2336490148256281</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1028082778899893</v>
+        <v>0.1291999747920522</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5232804724016975</v>
+        <v>0.4809842009497133</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1680769857200414</v>
+        <v>-0.1859723784446294</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.0838644568185677</v>
+        <v>0.06364511895985107</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.5778660871898398</v>
+        <v>0.5522774117362467</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.7484308360281322</v>
+        <v>0.8196455192283232</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.8057485620331584</v>
+        <v>0.8077012520364395</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.088340620059256</v>
+        <v>2.154481974827252</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5901798250153265</v>
+        <v>0.6240489318703348</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.255519316789336</v>
+        <v>1.249945979010939</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.709405048615288</v>
+        <v>1.68625246070718</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4609261567339797</v>
+        <v>0.4777113146191261</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.8996198227598167</v>
+        <v>0.86048391454921</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.50761781887519</v>
+        <v>1.563307251452314</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.6477673826750117</v>
+        <v>-0.6500944384661768</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.09296979399016059</v>
+        <v>-0.1192878247985685</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.302112935901353</v>
+        <v>2.324407331450042</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.085077130650916</v>
+        <v>1.030456603305638</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.265985746542035</v>
+        <v>2.216688554926496</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>5.142448998175251</v>
+        <v>5.291590293476703</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.4265779616499215</v>
+        <v>0.4759557017561376</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.39412096644263</v>
+        <v>1.342263534225786</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>4.088864809222616</v>
+        <v>4.043812876649446</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.8573509652099989</v>
+        <v>0.7833367339400068</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.439677109939546</v>
+        <v>1.394848556110943</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.004918285748715</v>
+        <v>4.020162751653167</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.207766156676505</v>
+        <v>3.228625994261614</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.552586507118252</v>
+        <v>4.530454958308399</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>7.272654497541279</v>
+        <v>7.261713929767205</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.799176596948537</v>
+        <v>1.814102543534105</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.786756357500351</v>
+        <v>2.714205845988232</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>5.487949038709054</v>
+        <v>5.442493798613715</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2784418895959542</v>
+        <v>-0.2868257114130657</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.044456096440857</v>
+        <v>-0.05977359721374072</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.967905822728923</v>
+        <v>0.9884302642946051</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2248776569874407</v>
+        <v>0.2147105864141954</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.4577668570990235</v>
+        <v>0.4654561013830694</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>1.068308973486432</v>
+        <v>1.087735675346628</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1260106909280423</v>
+        <v>0.1370629102200018</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.4062870394724362</v>
+        <v>0.3876277066959277</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>1.206435704833662</v>
+        <v>1.172962138549091</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.5164442906234104</v>
+        <v>0.4634870243746602</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.8529223607946551</v>
+        <v>0.8170620591697721</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.386573152052417</v>
+        <v>2.413611246526841</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.8687269411081519</v>
+        <v>0.889510224671619</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.234261610663283</v>
+        <v>1.217481562196059</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.986048020341825</v>
+        <v>2.000461724000596</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6442239964934441</v>
+        <v>0.6539507662383941</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.9844403381392225</v>
+        <v>0.9768125025569646</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.991636555511175</v>
+        <v>1.952765757362556</v>
       </c>
     </row>
     <row r="34">
